--- a/Zeitraport.xlsx
+++ b/Zeitraport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16920" tabRatio="500"/>
+    <workbookView xWindow="420" yWindow="2740" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>SW</t>
   </si>
@@ -31,12 +31,30 @@
   </si>
   <si>
     <t>Stunden</t>
+  </si>
+  <si>
+    <t>Rechersche Antennen, Abstrahlung</t>
+  </si>
+  <si>
+    <t>Einleitung, Aufgabenstellung</t>
+  </si>
+  <si>
+    <t>Beschrieb: Dipol, Loop, Radiation pattern</t>
+  </si>
+  <si>
+    <t>Ferien</t>
+  </si>
+  <si>
+    <t>Beschrieb Dipol, Loop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -66,8 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -399,19 +418,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D2"/>
+  <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="13.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -419,6 +442,69 @@
       </c>
       <c r="D2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>42290</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="1">
+        <v>42291</v>
       </c>
     </row>
   </sheetData>
